--- a/Data/02_Opplæring og kompetanse/Erling - Opplæring og kompetanse diverse.xlsx
+++ b/Data/02_Opplæring og kompetanse/Erling - Opplæring og kompetanse diverse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/erling_kielland_servoll_vtfk_no/Documents/GitHub/VT_Pluss/01_Nedlastede data/02_Opplæring og kompetanse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/erling_kielland_servoll_vtfk_no/Documents/GitHub/Telemark/Data/02_Opplæring og kompetanse/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="76" documentId="14_{D76212CB-ED06-4FEE-BF6E-68E348421470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20FED6A8-01C9-4668-9AE0-BD630DDE9119}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18435" windowHeight="21000" firstSheet="5" activeTab="9" xr2:uid="{66BDA01B-DBFD-40FB-8054-80896674D95F}"/>
+    <workbookView minimized="1" xWindow="4245" yWindow="4245" windowWidth="24690" windowHeight="14355" firstSheet="3" activeTab="10" xr2:uid="{66BDA01B-DBFD-40FB-8054-80896674D95F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -940,7 +940,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -961,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -977,13 +977,13 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="15"/>
@@ -991,7 +991,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="15" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="15" applyFont="1"/>
@@ -1015,6 +1014,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="5"/>
     <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="14" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1023,7 +1023,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="14" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Beregning" xfId="10" builtinId="22" customBuiltin="1"/>
@@ -7829,7 +7828,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Utdanningsnivå VT - landet - la"/>
@@ -19730,7 +19729,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{762186FD-D39B-42A8-B664-DDCC0310F554}" name="Pivottabell4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{762186FD-D39B-42A8-B664-DDCC0310F554}" name="Pivottabell4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AG11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -21110,7 +21109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AE8A0C-E627-4594-B5F6-32BEAF3A319B}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -21121,153 +21120,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <f>SUM(C6:C7)</f>
         <v>4963</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <f>SUM(D6:D7)</f>
         <v>5186</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <f>SUM(E6:E7)</f>
         <v>5443</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <f>SUM(F6:F7)</f>
         <v>5321</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <f>SUM(G6:G7)</f>
         <v>5668</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <v>5079</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <v>5966</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>2933</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>2962</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>3108</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>3106</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>3276</v>
       </c>
-      <c r="H6" s="24">
-        <v>0</v>
-      </c>
-      <c r="I6" s="24">
+      <c r="H6" s="23">
+        <v>0</v>
+      </c>
+      <c r="I6" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>2030</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>2224</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>2335</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>2215</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>2392</v>
       </c>
-      <c r="H7" s="24">
-        <v>0</v>
-      </c>
-      <c r="I7" s="24">
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
+      <c r="I7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="40">
-        <f>D5/C5-1</f>
+      <c r="D9" s="35">
+        <f t="shared" ref="D9:I9" si="0">D5/C5-1</f>
         <v>4.4932500503727546E-2</v>
       </c>
-      <c r="E9" s="40">
-        <f>E5/D5-1</f>
+      <c r="E9" s="35">
+        <f t="shared" si="0"/>
         <v>4.9556498264558435E-2</v>
       </c>
-      <c r="F9" s="40">
-        <f>F5/E5-1</f>
+      <c r="F9" s="35">
+        <f t="shared" si="0"/>
         <v>-2.241410986588277E-2</v>
       </c>
-      <c r="G9" s="40">
-        <f>G5/F5-1</f>
+      <c r="G9" s="35">
+        <f t="shared" si="0"/>
         <v>6.5213305769592278E-2</v>
       </c>
-      <c r="H9" s="40">
-        <f>H5/G5-1</f>
+      <c r="H9" s="35">
+        <f t="shared" si="0"/>
         <v>-0.10391672547635855</v>
       </c>
-      <c r="I9" s="40">
-        <f>I5/H5-1</f>
+      <c r="I9" s="35">
+        <f t="shared" si="0"/>
         <v>0.17464067729868082</v>
       </c>
     </row>
@@ -21281,7 +21280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CBB18A-8006-4903-B57E-28F8E1E3C7C8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -21296,7 +21295,7 @@
   </sheetPr>
   <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36:D45"/>
     </sheetView>
   </sheetViews>
@@ -22403,10 +22402,10 @@
       <c r="B3">
         <v>22516</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <v>0.20446971004095568</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <v>0.30023738259882343</v>
       </c>
     </row>
@@ -22417,10 +22416,10 @@
       <c r="B4">
         <v>15669</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <v>0.14229152099092798</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>0.18804830219836929</v>
       </c>
     </row>
@@ -22431,10 +22430,10 @@
       <c r="B5">
         <v>19617</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>0.17814364460265714</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>0.16926411394364743</v>
       </c>
     </row>
@@ -22445,10 +22444,10 @@
       <c r="B6">
         <v>19008</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>0.17261326383276274</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>0.12096191557436269</v>
       </c>
     </row>
@@ -22459,10 +22458,10 @@
       <c r="B7">
         <v>14238</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>0.12929648834442739</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>0.12044586644648571</v>
       </c>
     </row>
@@ -22473,10 +22472,10 @@
       <c r="B8">
         <v>18010</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>0.16355034099474206</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>9.7842914645474247E-2</v>
       </c>
     </row>
@@ -22487,10 +22486,10 @@
       <c r="B9">
         <v>1061</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>9.6350311935270022E-3</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>3.1995045928372382E-3</v>
       </c>
     </row>
@@ -22639,100 +22638,100 @@
       <c r="A5" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="22">
-        <v>0</v>
-      </c>
-      <c r="C5" s="22">
-        <v>0</v>
-      </c>
-      <c r="D5" s="22">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="22">
-        <v>0</v>
-      </c>
-      <c r="N5" s="22">
-        <v>0</v>
-      </c>
-      <c r="O5" s="22">
-        <v>0</v>
-      </c>
-      <c r="P5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>0</v>
-      </c>
-      <c r="R5" s="22">
-        <v>0</v>
-      </c>
-      <c r="S5" s="22">
-        <v>0</v>
-      </c>
-      <c r="T5" s="22">
-        <v>0</v>
-      </c>
-      <c r="U5" s="22">
-        <v>0</v>
-      </c>
-      <c r="V5" s="22">
-        <v>0</v>
-      </c>
-      <c r="W5" s="22">
-        <v>0</v>
-      </c>
-      <c r="X5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="22">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <v>20946</v>
       </c>
-      <c r="AC5" s="22">
+      <c r="AC5">
         <v>21450</v>
       </c>
-      <c r="AD5" s="22">
+      <c r="AD5">
         <v>22064</v>
       </c>
-      <c r="AE5" s="22">
+      <c r="AE5">
         <v>22516</v>
       </c>
-      <c r="AF5" s="22">
+      <c r="AF5">
         <v>22964</v>
       </c>
-      <c r="AG5" s="22">
+      <c r="AG5">
         <v>109940</v>
       </c>
     </row>
@@ -22740,100 +22739,100 @@
       <c r="A6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6">
         <v>240276</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6">
         <v>234944</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6">
         <v>230426</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6">
         <v>224860</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6">
         <v>219842</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6">
         <v>214952</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6">
         <v>214430</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6">
         <v>213302</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6">
         <v>210738</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6">
         <v>208502</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6">
         <v>206080</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6">
         <v>202900</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6">
         <v>200276</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6">
         <v>199136</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6">
         <v>196908</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6">
         <v>196372</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6">
         <v>196486</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6">
         <v>196040</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6">
         <v>194990</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6">
         <v>193842</v>
       </c>
-      <c r="V6" s="22">
+      <c r="V6">
         <v>193412</v>
       </c>
-      <c r="W6" s="22">
+      <c r="W6">
         <v>192760</v>
       </c>
-      <c r="X6" s="22">
+      <c r="X6">
         <v>192750</v>
       </c>
-      <c r="Y6" s="22">
+      <c r="Y6">
         <v>191928</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6">
         <v>193734</v>
       </c>
-      <c r="AA6" s="22">
+      <c r="AA6">
         <v>192594</v>
       </c>
-      <c r="AB6" s="22">
+      <c r="AB6">
         <v>191386</v>
       </c>
-      <c r="AC6" s="22">
+      <c r="AC6">
         <v>191188</v>
       </c>
-      <c r="AD6" s="22">
+      <c r="AD6">
         <v>189360</v>
       </c>
-      <c r="AE6" s="22">
+      <c r="AE6">
         <v>185640</v>
       </c>
-      <c r="AF6" s="22">
+      <c r="AF6">
         <v>180146</v>
       </c>
-      <c r="AG6" s="22">
+      <c r="AG6">
         <v>6290200</v>
       </c>
     </row>
@@ -22841,100 +22840,100 @@
       <c r="A7" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7">
         <v>62580</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7">
         <v>65414</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7">
         <v>69064</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7">
         <v>72322</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7">
         <v>75446</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7">
         <v>78640</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7">
         <v>82488</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7">
         <v>86182</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7">
         <v>89532</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7">
         <v>91268</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7">
         <v>93256</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7">
         <v>95534</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7">
         <v>98228</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7">
         <v>101092</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7">
         <v>104854</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7">
         <v>108492</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7">
         <v>111482</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7">
         <v>114264</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7">
         <v>117552</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7">
         <v>120928</v>
       </c>
-      <c r="V7" s="22">
+      <c r="V7">
         <v>124880</v>
       </c>
-      <c r="W7" s="22">
+      <c r="W7">
         <v>128892</v>
       </c>
-      <c r="X7" s="22">
+      <c r="X7">
         <v>133076</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="Y7">
         <v>136158</v>
       </c>
-      <c r="Z7" s="22">
+      <c r="Z7">
         <v>142604</v>
       </c>
-      <c r="AA7" s="22">
+      <c r="AA7">
         <v>146126</v>
       </c>
-      <c r="AB7" s="22">
+      <c r="AB7">
         <v>150682</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AC7">
         <v>154118</v>
       </c>
-      <c r="AD7" s="22">
+      <c r="AD7">
         <v>158156</v>
       </c>
-      <c r="AE7" s="22">
+      <c r="AE7">
         <v>160724</v>
       </c>
-      <c r="AF7" s="22">
+      <c r="AF7">
         <v>162294</v>
       </c>
-      <c r="AG7" s="22">
+      <c r="AG7">
         <v>3436328</v>
       </c>
     </row>
@@ -22942,100 +22941,100 @@
       <c r="A8" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8">
         <v>13260</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8">
         <v>13794</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8">
         <v>14212</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8">
         <v>14596</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8">
         <v>15122</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8">
         <v>15762</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8">
         <v>16622</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8">
         <v>17384</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8">
         <v>18076</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8">
         <v>18864</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8">
         <v>19684</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8">
         <v>20372</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8">
         <v>21036</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8">
         <v>21870</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8">
         <v>22770</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8">
         <v>23500</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8">
         <v>24380</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8">
         <v>25654</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8">
         <v>26600</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8">
         <v>27810</v>
       </c>
-      <c r="V8" s="22">
+      <c r="V8">
         <v>29278</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8">
         <v>30920</v>
       </c>
-      <c r="X8" s="22">
+      <c r="X8">
         <v>32436</v>
       </c>
-      <c r="Y8" s="22">
+      <c r="Y8">
         <v>33664</v>
       </c>
-      <c r="Z8" s="22">
+      <c r="Z8">
         <v>37650</v>
       </c>
-      <c r="AA8" s="22">
+      <c r="AA8">
         <v>40262</v>
       </c>
-      <c r="AB8" s="22">
+      <c r="AB8">
         <v>42240</v>
       </c>
-      <c r="AC8" s="22">
+      <c r="AC8">
         <v>43730</v>
       </c>
-      <c r="AD8" s="22">
+      <c r="AD8">
         <v>45486</v>
       </c>
-      <c r="AE8" s="22">
+      <c r="AE8">
         <v>46658</v>
       </c>
-      <c r="AF8" s="22">
+      <c r="AF8">
         <v>48604</v>
       </c>
-      <c r="AG8" s="22">
+      <c r="AG8">
         <v>822296</v>
       </c>
     </row>
@@ -23043,100 +23042,100 @@
       <c r="A9" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9">
         <v>6540</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9">
         <v>6968</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9">
         <v>7132</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9">
         <v>6884</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9">
         <v>6616</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9">
         <v>6626</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9">
         <v>6324</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9">
         <v>6196</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9">
         <v>6198</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9">
         <v>5874</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9">
         <v>6564</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9">
         <v>7066</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9">
         <v>8032</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9">
         <v>8684</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9">
         <v>9114</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9">
         <v>9802</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9">
         <v>10008</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9">
         <v>11630</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9">
         <v>13510</v>
       </c>
-      <c r="U9" s="22">
+      <c r="U9">
         <v>14056</v>
       </c>
-      <c r="V9" s="22">
+      <c r="V9">
         <v>14406</v>
       </c>
-      <c r="W9" s="22">
+      <c r="W9">
         <v>15130</v>
       </c>
-      <c r="X9" s="22">
+      <c r="X9">
         <v>16108</v>
       </c>
-      <c r="Y9" s="22">
+      <c r="Y9">
         <v>18106</v>
       </c>
-      <c r="Z9" s="22">
+      <c r="Z9">
         <v>4712</v>
       </c>
-      <c r="AA9" s="22">
+      <c r="AA9">
         <v>4662</v>
       </c>
-      <c r="AB9" s="22">
+      <c r="AB9">
         <v>4668</v>
       </c>
-      <c r="AC9" s="22">
+      <c r="AC9">
         <v>4614</v>
       </c>
-      <c r="AD9" s="22">
+      <c r="AD9">
         <v>4550</v>
       </c>
-      <c r="AE9" s="22">
+      <c r="AE9">
         <v>4214</v>
       </c>
-      <c r="AF9" s="22">
+      <c r="AF9">
         <v>4018</v>
       </c>
-      <c r="AG9" s="22">
+      <c r="AG9">
         <v>259012</v>
       </c>
     </row>
@@ -23144,100 +23143,100 @@
       <c r="A10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10">
         <v>258570</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10">
         <v>261858</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10">
         <v>264730</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10">
         <v>268612</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10">
         <v>271754</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10">
         <v>274776</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10">
         <v>272648</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10">
         <v>272348</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10">
         <v>274996</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10">
         <v>278096</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10">
         <v>280334</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10">
         <v>282404</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10">
         <v>284114</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10">
         <v>284410</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10">
         <v>285456</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10">
         <v>284026</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10">
         <v>284258</v>
       </c>
-      <c r="S10" s="22">
+      <c r="S10">
         <v>284946</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10">
         <v>287432</v>
       </c>
-      <c r="U10" s="22">
+      <c r="U10">
         <v>288778</v>
       </c>
-      <c r="V10" s="22">
+      <c r="V10">
         <v>290792</v>
       </c>
-      <c r="W10" s="22">
+      <c r="W10">
         <v>292306</v>
       </c>
-      <c r="X10" s="22">
+      <c r="X10">
         <v>292860</v>
       </c>
-      <c r="Y10" s="22">
+      <c r="Y10">
         <v>293134</v>
       </c>
-      <c r="Z10" s="22">
+      <c r="Z10">
         <v>300036</v>
       </c>
-      <c r="AA10" s="22">
+      <c r="AA10">
         <v>300362</v>
       </c>
-      <c r="AB10" s="22">
+      <c r="AB10">
         <v>280472</v>
       </c>
-      <c r="AC10" s="22">
+      <c r="AC10">
         <v>280420</v>
       </c>
-      <c r="AD10" s="22">
+      <c r="AD10">
         <v>280392</v>
       </c>
-      <c r="AE10" s="22">
+      <c r="AE10">
         <v>282372</v>
       </c>
-      <c r="AF10" s="22">
+      <c r="AF10">
         <v>279360</v>
       </c>
-      <c r="AG10" s="22">
+      <c r="AG10">
         <v>8717052</v>
       </c>
     </row>
@@ -23245,100 +23244,100 @@
       <c r="A11" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11">
         <v>581226</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11">
         <v>582978</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11">
         <v>585564</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11">
         <v>587274</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11">
         <v>588780</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11">
         <v>590756</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11">
         <v>592512</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11">
         <v>595412</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11">
         <v>599540</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11">
         <v>602604</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11">
         <v>605918</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11">
         <v>608276</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11">
         <v>611686</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11">
         <v>615192</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11">
         <v>619102</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11">
         <v>622192</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11">
         <v>626614</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11">
         <v>632534</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11">
         <v>640084</v>
       </c>
-      <c r="U11" s="22">
+      <c r="U11">
         <v>645414</v>
       </c>
-      <c r="V11" s="22">
+      <c r="V11">
         <v>652768</v>
       </c>
-      <c r="W11" s="22">
+      <c r="W11">
         <v>660008</v>
       </c>
-      <c r="X11" s="22">
+      <c r="X11">
         <v>667230</v>
       </c>
-      <c r="Y11" s="22">
+      <c r="Y11">
         <v>672990</v>
       </c>
-      <c r="Z11" s="22">
+      <c r="Z11">
         <v>678736</v>
       </c>
-      <c r="AA11" s="22">
+      <c r="AA11">
         <v>684006</v>
       </c>
-      <c r="AB11" s="22">
+      <c r="AB11">
         <v>690394</v>
       </c>
-      <c r="AC11" s="22">
+      <c r="AC11">
         <v>695520</v>
       </c>
-      <c r="AD11" s="22">
+      <c r="AD11">
         <v>700008</v>
       </c>
-      <c r="AE11" s="22">
+      <c r="AE11">
         <v>702124</v>
       </c>
-      <c r="AF11" s="22">
+      <c r="AF11">
         <v>697386</v>
       </c>
-      <c r="AG11" s="22">
+      <c r="AG11">
         <v>19634828</v>
       </c>
     </row>
@@ -54297,367 +54296,367 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33" t="s">
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="32" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Q5" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="33">
         <f>SUM(B31,B36)/B37</f>
         <v>0.26407756966730045</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="33">
         <f>SUM(L6,L11)/L12</f>
         <v>0.25910273031043685</v>
       </c>
-      <c r="T5" s="34">
+      <c r="T5" s="33">
         <f>SUM(B18,B23)/B24</f>
         <v>0.25185773563611724</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>261720</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>89140</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>90073</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>61320</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>91273</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>119773</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>55544</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>90098</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <v>58086</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="23">
         <v>56641</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="23">
         <f t="shared" ref="L6:L11" si="0">SUM(B6:K6)</f>
         <v>973668</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="34">
         <f t="shared" ref="M6:M11" si="1">L6/$L$12</f>
         <v>0.25398069192905942</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="Q6" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="33">
         <f>SUM(B32:B33)/B37</f>
         <v>0.43351027981634277</v>
       </c>
-      <c r="S6" s="34">
+      <c r="S6" s="33">
         <f>SUM(L7:L8)/L12</f>
         <v>0.41653811139833524</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="33">
         <f>SUM(B19:B20)/B24</f>
         <v>0.39732449808844161</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>370025</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>127006</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>139680</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>100965</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>147940</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>199929</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <v>88756</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <v>151031</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <v>79270</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="23">
         <v>72501</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="23">
         <f t="shared" si="0"/>
         <v>1477103</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="34">
         <f t="shared" si="1"/>
         <v>0.38530139841351407</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="Q7" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="33">
         <f>SUM(B34:B35)/B37</f>
         <v>0.30241215051635678</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="33">
         <f>SUM(L9:L10)/L12</f>
         <v>0.32435915829122791</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="33">
         <f>SUM(B21:B22)/B24</f>
         <v>0.3508177662754412</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>28671</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>8780</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>11482</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>8687</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>12948</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>17354</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <v>8671</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <v>10352</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <v>6331</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="23">
         <v>6474</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="23">
         <f t="shared" si="0"/>
         <v>119750</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="34">
         <f t="shared" si="1"/>
         <v>3.1236712984821176E-2</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>245799</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>66582</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>81147</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>58781</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>89648</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>128749</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <v>50164</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <v>93277</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <v>43055</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="23">
         <v>46511</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="23">
         <f t="shared" si="0"/>
         <v>903713</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="34">
         <f t="shared" si="1"/>
         <v>0.23573297370899121</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>102039</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>18408</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>24302</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>18826</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>39594</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>51813</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <v>13447</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <v>40465</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="23">
         <v>12369</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="23">
         <v>18497</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="23">
         <f t="shared" si="0"/>
         <v>339760</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="34">
         <f t="shared" si="1"/>
         <v>8.8626184582236672E-2</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>6100</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>1646</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>2009</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>1338</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>2024</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <v>2280</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <v>983</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <v>1404</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="23">
         <v>866</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="23">
         <v>986</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="23">
         <f t="shared" si="0"/>
         <v>19636</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="34">
         <f t="shared" si="1"/>
         <v>5.1220383813774415E-3</v>
       </c>
@@ -54666,215 +54665,215 @@
       <c r="K12" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="23">
         <f>SUM(L6:L11)</f>
         <v>3833630</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="23">
         <f>SUM(M6:M11)</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>1086025</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <f t="shared" ref="C18:C24" si="2">B18/$B$24</f>
         <v>0.24611739484162506</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>1620840</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <f t="shared" si="2"/>
         <v>0.36731835662632034</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>132406</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <f t="shared" si="2"/>
         <v>3.000614146212123E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>1082406</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <f t="shared" si="2"/>
         <v>0.24529724903288969</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>465623</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="34">
         <f t="shared" si="2"/>
         <v>0.1055205172425515</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>25330</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="34">
         <f t="shared" si="2"/>
         <v>5.7403407944921735E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="24">
+      <c r="B24" s="23">
         <f>SUM(B18:B23)</f>
         <v>4412630</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="23">
         <v>90073</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="34">
         <f t="shared" ref="C31:C37" si="3">B31/$B$37</f>
         <v>0.25831605452360673</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="23">
         <v>139680</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="34">
         <f t="shared" si="3"/>
         <v>0.40058160043361923</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="23">
         <v>11482</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="34">
         <f t="shared" si="3"/>
         <v>3.2928679382723487E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="23">
         <v>81147</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="34">
         <f t="shared" si="3"/>
         <v>0.23271760545809639</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="23">
         <v>24302</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="34">
         <f t="shared" si="3"/>
         <v>6.9694545058260421E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="23">
         <v>2009</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="34">
         <f t="shared" si="3"/>
         <v>5.7615151436937366E-3</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="24">
+      <c r="B37" s="23">
         <f>SUM(B31:B36)</f>
         <v>348693</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -54972,60 +54971,60 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27">
         <v>2016</v>
       </c>
-      <c r="C1" s="28">
+      <c r="C1" s="27">
         <v>2017</v>
       </c>
-      <c r="D1" s="28">
+      <c r="D1" s="27">
         <v>2018</v>
       </c>
-      <c r="E1" s="28">
+      <c r="E1" s="27">
         <v>2019</v>
       </c>
-      <c r="F1" s="28">
+      <c r="F1" s="27">
         <v>2020</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="30">
         <v>12076</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <v>12669</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>13063</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>12551</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>12296</v>
       </c>
     </row>
